--- a/backend/backend/media/Manutentores.xlsx
+++ b/backend/backend/media/Manutentores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1021328\Documents\ordem_servico\proposta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51873691807\Desktop\tarefa lindomar\backend\backend\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBE9DD-6084-43F5-AA8D-7692B8B75A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975403A3-8FFF-4B03-B94A-7BF859EB795A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B624E13-1A3A-48C3-B0FE-47EF25803972}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Elétrica</t>
   </si>
@@ -99,16 +88,13 @@
   </si>
   <si>
     <t>gestor</t>
-  </si>
-  <si>
-    <t>teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,19 +509,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -552,9 +538,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>2345</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -565,13 +551,13 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>9486</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -582,13 +568,13 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>7887</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -599,13 +585,13 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>76578</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -616,13 +602,13 @@
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>3445</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -633,13 +619,13 @@
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>654</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -650,13 +636,13 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>3577</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -667,13 +653,13 @@
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>7896</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -684,13 +670,13 @@
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>57776</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -701,8 +687,8 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
